--- a/fuentes/contenidos/grado11/guion01/SolicitudGrafica-MA_11_01_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion01/SolicitudGrafica-MA_11_01_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="211">
   <si>
     <t>Fecha:</t>
   </si>
@@ -576,100 +576,137 @@
     <t>Gusano sobre una regla.</t>
   </si>
   <si>
-    <t>Ninguna</t>
-  </si>
-  <si>
-    <t>En el buscador de contenidos de aula planeta se busco recta real, en la pestaña de banco de contenidos la tercera imagen.</t>
+    <t>4 Eso/Matemáticas/Intervalos/Intervalos Acotados Abiertos/primera imagen</t>
+  </si>
+  <si>
+    <t>4 Eso/Matematicas/Intervalos/Intervalos Acotados Abiertos/segunda imagen</t>
+  </si>
+  <si>
+    <t>4 Eso/Matematicas/Intervalos/Intervalos Acotados Abiertos/tercera imagen</t>
+  </si>
+  <si>
+    <t>4 Eso/Matematicas/Intervalos/Intervalos Acotados Cerrados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Eso/Matematicas/Intervalos/Intervalos Semiabiertos/primera imagen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 Eso/Matematicas/Intervalos/Intervalos Semiabiertos/segunda  imagen </t>
+  </si>
+  <si>
+    <t>4 Eso/Matemáticas/Intervalos/Intervalos Semiabiertos/tercera imagen</t>
+  </si>
+  <si>
+    <t>IMG15</t>
+  </si>
+  <si>
+    <t>IMG16</t>
+  </si>
+  <si>
+    <t>4 Eso/Matemáticas/Intervalos/Intervalos Semiabiertos/cuarta imagen</t>
+  </si>
+  <si>
+    <t>IMG17</t>
+  </si>
+  <si>
+    <t>IMG18</t>
+  </si>
+  <si>
+    <t>IMG19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://upload.wikimedia.org/wikipedia/commons/thumb/c/c6/Intervalo_real_22.svg/120px-Intervalo_real_22.svg.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tres rectas numericas, con los intervalos:(-∞,4); (-3,15] y  (-∞,4)∪(-3,15]  respectivamente. </t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/thumb/a/a9/Intervalo_real_20.svg/120px-Intervalo_real_20.svg.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tres rectas numericas, con los intervalos: (-∞,4); (9,∞) y (-∞,4)∪(9,∞)  respectivamente. </t>
+  </si>
+  <si>
+    <t>IMG20</t>
+  </si>
+  <si>
+    <t>IMG21</t>
+  </si>
+  <si>
+    <t>IMG22</t>
+  </si>
+  <si>
+    <t>IMG23</t>
+  </si>
+  <si>
+    <t>IMG24</t>
+  </si>
+  <si>
+    <t>IMG25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://upload.wikimedia.org/wikipedia/commons/thumb/f/f6/Intervalo_real_23.svg/120px-Intervalo_real_23.svg.png </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tres rectas numericas, con los intervalos:  (-∞,4), (-3,15] y (-∞,4)∩(-3,15]   respectivamente. </t>
+  </si>
+  <si>
+    <t>http://upload.wikimedia.org/wikipedia/commons/thumb/8/8e/Intervalo_real_21.svg/120px-Intervalo_real_21.svg.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tres rectas numericas, con los intervalos: (-∞,4); (9,∞) y(-∞,4)∩(9,∞)   respectivamente. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://upload.wikimedia.org/wikipedia/commons/thumb/d/d2/Intervalo_03.svg/300px-Intervalo_03.svg.png </t>
+  </si>
+  <si>
+    <t>Dos rectas numéricas,  una con el intervalo [a,b) y otra con su complemento es decir el intervalo (-∞,a)∪[b,∞)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=11&amp;idpil=0015EF01&amp;ruta=Buscador </t>
+  </si>
+  <si>
+    <t>Dos rectas numéricas,  una con el intervalo (-∞,a] y otra con su complemento es decir el intervalo (a,∞)</t>
+  </si>
+  <si>
+    <t>Dibujar intervalo abierto (-2,2) en la recta numérica</t>
+  </si>
+  <si>
+    <t>IMG26</t>
+  </si>
+  <si>
+    <t>Dibujar la union de  intervalos  (-∞,-2)∪(2,∞)  en la recta numérica</t>
+  </si>
+  <si>
+    <t>Falta llenar de color rojo desde 2 hasta onfinito</t>
+  </si>
+  <si>
+    <t>Necesito que frente a las rectas esten los intervalos, ademas emplear  el simbolo de union</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Falta</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Escribir los intervalos frente a  cada recta numérica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escribir los intervalos frente a  cada recta numérica. </t>
+  </si>
+  <si>
+    <t>Es  necesario utilizar la simbologia matematica, el simbolo de pertenece, la equis en minuscula y  cursiva;  la R caracteristica del conjunto de los numeros reales.</t>
   </si>
   <si>
     <r>
-      <t>Indicar para los positivos IR</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> e IR</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>(IR de números reales)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Indicar para los positivos IR</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>(IR de números reales)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Indicar para los positivos IR</t>
+      <t>Usar los superindices y el simbolo de los numeros reales IR</t>
     </r>
     <r>
       <rPr>
@@ -700,189 +737,6 @@
       </rPr>
       <t xml:space="preserve">-  </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>para los reales negativos (IR de números reales)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Indicar </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> IR</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>para los reales negativos (IR de números reales)</t>
-    </r>
-  </si>
-  <si>
-    <t>Remplazar A,B,C, D, E, F, G por las raices cuadradas de 2,3,5, 6,7,8,10</t>
-  </si>
-  <si>
-    <t>Se puede hacer una imagen similar  que represente el intervalo abierto (a,b), con el fin de que todos los intervalos lleven los mismos diseños.</t>
-  </si>
-  <si>
-    <t>4 Eso/Matemáticas/Intervalos/Intervalos Acotados Abiertos/primera imagen</t>
-  </si>
-  <si>
-    <t>Se puede hacer una imagen similar  que represente el intervalo abierto (a,infinito), con el fin de que todos los intervalos lleven los mismos diseños.</t>
-  </si>
-  <si>
-    <t>4 Eso/Matematicas/Intervalos/Intervalos Acotados Abiertos/segunda imagen</t>
-  </si>
-  <si>
-    <t>Se puede hacer una imagen similar  que represente el intervalo abierto (-infinito, b), con el fin de que todos los intervalos lleven los mismos diseños.</t>
-  </si>
-  <si>
-    <t>4 Eso/Matematicas/Intervalos/Intervalos Acotados Abiertos/tercera imagen</t>
-  </si>
-  <si>
-    <t>Se puede hacer una imagen similar  que represente el intervalo cerrado [a, b], con el fin de que todos los intervalos lleven los mismos diseños.</t>
-  </si>
-  <si>
-    <t>4 Eso/Matematicas/Intervalos/Intervalos Acotados Cerrados</t>
-  </si>
-  <si>
-    <t>Se puede hacer una imagen similar  que represente el intervalo semiabierto [a, b), con el fin de que todos los intervalos lleven los mismos diseños.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 Eso/Matematicas/Intervalos/Intervalos Semiabiertos/primera imagen </t>
-  </si>
-  <si>
-    <t>Se puede hacer una imagen similar  que represente el intervalo semiabierto (a, b], con el fin de que todos los intervalos lleven los mismos diseños.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 Eso/Matematicas/Intervalos/Intervalos Semiabiertos/segunda  imagen </t>
-  </si>
-  <si>
-    <t>Se puede hacer una imagen similar  que represente el intervalo semiabierto [a, infinito), con el fin de que todos los intervalos lleven los mismos diseños.</t>
-  </si>
-  <si>
-    <t>4 Eso/Matemáticas/Intervalos/Intervalos Semiabiertos/tercera imagen</t>
-  </si>
-  <si>
-    <t>IMG15</t>
-  </si>
-  <si>
-    <t>IMG16</t>
-  </si>
-  <si>
-    <t>4 Eso/Matemáticas/Intervalos/Intervalos Semiabiertos/cuarta imagen</t>
-  </si>
-  <si>
-    <t>Se puede hacer una imagen similar  que represente el intervalo semiabierto (-infinito,b], con el fin de que todos los intervalos lleven los mismos diseños.</t>
-  </si>
-  <si>
-    <t>IMG17</t>
-  </si>
-  <si>
-    <t>IMG18</t>
-  </si>
-  <si>
-    <t>IMG19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://upload.wikimedia.org/wikipedia/commons/thumb/c/c6/Intervalo_real_22.svg/120px-Intervalo_real_22.svg.png </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tres rectas numericas, con los intervalos:(-∞,4); (-3,15] y  (-∞,4)∪(-3,15]  respectivamente. </t>
-  </si>
-  <si>
-    <t>Dibujar una imagen similar, que tenga un diseño parecido a las rectas anteriores.</t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/thumb/a/a9/Intervalo_real_20.svg/120px-Intervalo_real_20.svg.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tres rectas numericas, con los intervalos: (-∞,4); (9,∞) y (-∞,4)∪(9,∞)  respectivamente. </t>
-  </si>
-  <si>
-    <t>IMG20</t>
-  </si>
-  <si>
-    <t>IMG21</t>
-  </si>
-  <si>
-    <t>IMG22</t>
-  </si>
-  <si>
-    <t>IMG23</t>
-  </si>
-  <si>
-    <t>IMG24</t>
-  </si>
-  <si>
-    <t>IMG25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://upload.wikimedia.org/wikipedia/commons/thumb/f/f6/Intervalo_real_23.svg/120px-Intervalo_real_23.svg.png </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tres rectas numericas, con los intervalos:  (-∞,4), (-3,15] y (-∞,4)∩(-3,15]   respectivamente. </t>
-  </si>
-  <si>
-    <t>http://upload.wikimedia.org/wikipedia/commons/thumb/8/8e/Intervalo_real_21.svg/120px-Intervalo_real_21.svg.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tres rectas numericas, con los intervalos: (-∞,4); (9,∞) y(-∞,4)∩(9,∞)   respectivamente. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://upload.wikimedia.org/wikipedia/commons/thumb/d/d2/Intervalo_03.svg/300px-Intervalo_03.svg.png </t>
-  </si>
-  <si>
-    <t>Dos rectas numéricas,  una con el intervalo [a,b) y otra con su complemento es decir el intervalo (-∞,a)∪[b,∞)</t>
-  </si>
-  <si>
-    <t>Que el diseño de las rectas sea similar en cada una de las imágenes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=11&amp;idpil=0015EF01&amp;ruta=Buscador </t>
-  </si>
-  <si>
-    <t>La imagen es tomada del banco de contenidos de aula planeta, en el buscador se escribe la  frase "recta real", y en la pestaña de banco de contenidos, se da click sobre la primera imagen.</t>
-  </si>
-  <si>
-    <t>Dos rectas numéricas,  una con el intervalo (-∞,a] y otra con su complemento es decir el intervalo (a,∞)</t>
-  </si>
-  <si>
-    <t>Dibujar intervalo abierto (-2,2) en la recta numérica</t>
-  </si>
-  <si>
-    <t>IMG26</t>
-  </si>
-  <si>
-    <t>Dibujar la union de  intervalos  (-∞,-2)∪(2,∞)  en la recta numérica</t>
-  </si>
-  <si>
-    <t>Diseñada desde edicion, dibujarla de forma similar a las rectas anteriores</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +913,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1103,6 +957,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1648,7 +1508,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1691,9 +1551,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1730,9 +1587,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1857,7 +1711,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1887,9 +1740,28 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1973,9 +1845,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -3681,9 +3550,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3711,8 +3580,8 @@
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
@@ -3721,16 +3590,16 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="F2" s="93" t="s">
+      <c r="D2" s="105"/>
+      <c r="F2" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="94"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -3738,14 +3607,14 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="102">
+      <c r="C3" s="106">
         <v>11</v>
       </c>
-      <c r="D3" s="103"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="D3" s="107"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
@@ -3753,19 +3622,19 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="106" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="103"/>
+      <c r="D4" s="107"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
@@ -3774,20 +3643,20 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="104" t="s">
+      <c r="C5" s="108" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="105"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="50" t="str">
+      <c r="F5" s="48" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v/>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="74"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="72"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
@@ -3799,20 +3668,20 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="35" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="34" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="1"/>
@@ -3828,12 +3697,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="97" t="s">
+      <c r="F8" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="99"/>
+      <c r="G8" s="102"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="103"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -3843,37 +3712,37 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="73" t="s">
+      <c r="G9" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="73" t="s">
+      <c r="H9" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="73" t="s">
+      <c r="I9" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="25" t="s">
+      <c r="K9" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3882,10 +3751,10 @@
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="C10" s="26" t="str">
+      <c r="C10" s="25" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3915,17 +3784,17 @@
         <v>166</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C11" s="26" t="str">
+      <c r="C11" s="25" t="str">
         <f t="shared" ref="C11:C13" si="2">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3952,18 +3821,18 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="K11" s="80" t="s">
-        <v>168</v>
+      <c r="K11" s="96" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="26" t="str">
+      <c r="C12" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -3989,19 +3858,19 @@
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="79"/>
-      <c r="K12" s="19" t="s">
-        <v>171</v>
+      <c r="J12" s="77"/>
+      <c r="K12" s="93" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="26" t="str">
+      <c r="C13" s="25" t="str">
         <f t="shared" si="2"/>
         <v>Cuaderno de Estudio</v>
       </c>
@@ -4028,18 +3897,18 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J13"/>
-      <c r="K13" s="19" t="s">
-        <v>169</v>
+      <c r="K13" s="93" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="25" t="s">
         <v>148</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -4064,16 +3933,16 @@
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J14" s="79"/>
-      <c r="K14" s="19" t="s">
-        <v>170</v>
+      <c r="J14" s="77"/>
+      <c r="K14" s="93" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>147</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -4102,15 +3971,15 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J15"/>
-      <c r="K15" s="19" t="s">
-        <v>171</v>
+      <c r="K15" s="93" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="26" t="s">
         <v>147</v>
       </c>
       <c r="C16" s="14" t="s">
@@ -4138,16 +4007,16 @@
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="79"/>
+      <c r="J16" s="77"/>
       <c r="K16" s="19" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="255" customHeight="1" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="255" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>147</v>
       </c>
       <c r="C17" s="14" t="s">
@@ -4175,17 +4044,17 @@
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="34" t="s">
-        <v>173</v>
+      <c r="J17" s="30"/>
+      <c r="K17" s="95" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="147.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="27" t="s">
-        <v>175</v>
+      <c r="B18" s="26" t="s">
+        <v>167</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>148</v>
@@ -4212,17 +4081,17 @@
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J18" s="79"/>
-      <c r="K18" s="20" t="s">
-        <v>174</v>
+      <c r="J18" s="77"/>
+      <c r="K18" s="94" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="183" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="81" t="s">
-        <v>177</v>
+      <c r="B19" s="78" t="s">
+        <v>168</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>148</v>
@@ -4250,16 +4119,16 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J19"/>
-      <c r="K19" s="20" t="s">
-        <v>176</v>
+      <c r="K19" s="94" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="77" t="s">
-        <v>179</v>
+      <c r="B20" s="75" t="s">
+        <v>169</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>148</v>
@@ -4287,16 +4156,16 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J20"/>
-      <c r="K20" s="20" t="s">
-        <v>178</v>
+      <c r="K20" s="94" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="12" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B21" s="77" t="s">
-        <v>181</v>
+      <c r="B21" s="75" t="s">
+        <v>170</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>148</v>
@@ -4323,17 +4192,17 @@
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="79"/>
-      <c r="K21" s="20" t="s">
-        <v>180</v>
+      <c r="J21" s="77"/>
+      <c r="K21" s="94" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="12" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="77" t="s">
-        <v>183</v>
+      <c r="B22" s="75" t="s">
+        <v>171</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>148</v>
@@ -4361,16 +4230,16 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J22"/>
-      <c r="K22" s="20" t="s">
-        <v>182</v>
+      <c r="K22" s="94" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>185</v>
+      <c r="B23" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>148</v>
@@ -4397,17 +4266,17 @@
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="20" t="s">
-        <v>184</v>
+      <c r="J23" s="77"/>
+      <c r="K23" s="94" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="B24" s="77" t="s">
-        <v>187</v>
+        <v>174</v>
+      </c>
+      <c r="B24" s="75" t="s">
+        <v>173</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>148</v>
@@ -4435,16 +4304,16 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J24"/>
-      <c r="K24" s="20" t="s">
-        <v>186</v>
+      <c r="K24" s="94" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="B25" s="90" t="s">
-        <v>190</v>
+        <v>175</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>176</v>
       </c>
       <c r="C25" s="14" t="s">
         <v>148</v>
@@ -4471,17 +4340,17 @@
         <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="20" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="J25" s="77"/>
+      <c r="K25" s="94" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="B26" s="82" t="s">
-        <v>195</v>
+        <v>177</v>
+      </c>
+      <c r="B26" s="79" t="s">
+        <v>180</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>148</v>
@@ -4509,18 +4378,18 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="K26" s="19" t="s">
-        <v>197</v>
+        <v>181</v>
+      </c>
+      <c r="K26" s="93" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B27" s="83" t="s">
-        <v>198</v>
+        <v>178</v>
+      </c>
+      <c r="B27" s="80" t="s">
+        <v>182</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>148</v>
@@ -4548,18 +4417,18 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>197</v>
+        <v>183</v>
+      </c>
+      <c r="K27" s="93" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="B28" s="82" t="s">
-        <v>206</v>
+        <v>179</v>
+      </c>
+      <c r="B28" s="79" t="s">
+        <v>190</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>148</v>
@@ -4587,18 +4456,18 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J28" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" s="93" t="s">
         <v>207</v>
       </c>
-      <c r="K28" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="B29" s="82" t="s">
-        <v>208</v>
+        <v>184</v>
+      </c>
+      <c r="B29" s="79" t="s">
+        <v>192</v>
       </c>
       <c r="C29" s="14" t="s">
         <v>148</v>
@@ -4626,56 +4495,56 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="K29" s="93" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="12" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="84" t="s">
-        <v>201</v>
-      </c>
-      <c r="B30" s="82" t="s">
-        <v>210</v>
-      </c>
-      <c r="C30" s="85" t="s">
+      <c r="A30" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="B30" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="82" t="s">
         <v>148</v>
       </c>
-      <c r="D30" s="85" t="s">
+      <c r="D30" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="85" t="s">
+      <c r="E30" s="82" t="s">
         <v>146</v>
       </c>
-      <c r="F30" s="85" t="str">
+      <c r="F30" s="82" t="str">
         <f t="shared" si="13"/>
         <v>MA_11_01_CO_IMG21_small</v>
       </c>
-      <c r="G30" s="85" t="str">
+      <c r="G30" s="82" t="str">
         <f>IF(F30&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H30" s="85" t="str">
+      <c r="H30" s="82" t="str">
         <f t="shared" si="14"/>
         <v>MA_11_01_CO_IMG21_zoom</v>
       </c>
-      <c r="I30" s="85" t="str">
+      <c r="I30" s="82" t="str">
         <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J30" s="86" t="s">
-        <v>211</v>
-      </c>
-      <c r="K30" s="86" t="s">
-        <v>212</v>
+      <c r="J30" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="K30" s="83" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="12" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="84" t="s">
-        <v>202</v>
-      </c>
-      <c r="B31" s="89" t="s">
+      <c r="A31" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" s="86" t="s">
         <v>147</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -4704,96 +4573,96 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J31" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="K31" s="86" t="s">
-        <v>212</v>
+        <v>197</v>
+      </c>
+      <c r="K31" s="83" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="12" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="84" t="s">
-        <v>203</v>
-      </c>
-      <c r="B32" s="82" t="s">
-        <v>213</v>
-      </c>
-      <c r="C32" s="87" t="s">
+      <c r="A32" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="88" t="s">
+      <c r="D32" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="88" t="s">
+      <c r="E32" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="F32" s="88" t="str">
+      <c r="F32" s="85" t="str">
         <f>IF(OR(B30&lt;&gt;"",J32&lt;&gt;""),CONCATENATE($C$7,"_",$A32,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I32="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_01_CO_IMG23_small</v>
       </c>
-      <c r="G32" s="88" t="str">
+      <c r="G32" s="85" t="str">
         <f>IF(F32&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H32" s="88" t="str">
+      <c r="H32" s="85" t="str">
         <f t="shared" si="14"/>
         <v>MA_11_01_CO_IMG23_zoom</v>
       </c>
-      <c r="I32" s="88" t="str">
+      <c r="I32" s="85" t="str">
         <f>IF(OR(B30&lt;&gt;"",J32&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
       <c r="J32"/>
-      <c r="K32" s="28" t="s">
-        <v>214</v>
+      <c r="K32" s="92" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B33" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="87" t="s">
+      <c r="C33" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="D33" s="88" t="s">
+      <c r="D33" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="88" t="s">
+      <c r="E33" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="F33" s="88" t="str">
+      <c r="F33" s="85" t="str">
         <f>IF(OR(B32&lt;&gt;"",J33&lt;&gt;""),CONCATENATE($C$7,"_",$A33,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I33="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_01_CO_IMG24_small</v>
       </c>
-      <c r="G33" s="88" t="str">
+      <c r="G33" s="85" t="str">
         <f>IF(F33&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H33" s="88" t="str">
+      <c r="H33" s="85" t="str">
         <f t="shared" ref="H33" si="17">IF(AND(I33&lt;&gt;"",I33&lt;&gt;0),IF(OR(B33&lt;&gt;"",J33&lt;&gt;""),CONCATENATE($C$7,"_",$A33,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>MA_11_01_CO_IMG24_zoom</v>
       </c>
-      <c r="I33" s="88" t="str">
+      <c r="I33" s="85" t="str">
         <f>IF(OR(B32&lt;&gt;"",J33&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J33" s="124" t="s">
-        <v>216</v>
-      </c>
-      <c r="K33" s="86" t="s">
-        <v>212</v>
+      <c r="J33" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="K33" s="83" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="12" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="B34" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="27" t="s">
+      <c r="C34" s="26" t="s">
         <v>148</v>
       </c>
       <c r="D34" s="14" t="s">
@@ -4818,54 +4687,54 @@
         <f>IF(OR(B34&lt;&gt;"",J34&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J34" s="79"/>
-      <c r="K34" s="92" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="J34" s="77"/>
+      <c r="K34" s="91" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B35" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="C35" s="87" t="s">
+      <c r="C35" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="D35" s="88" t="s">
+      <c r="D35" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="E35" s="88" t="s">
+      <c r="E35" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="F35" s="88" t="str">
+      <c r="F35" s="85" t="str">
         <f>IF(OR(B34&lt;&gt;"",J35&lt;&gt;""),CONCATENATE($C$7,"_",$A35,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I35="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>MA_11_01_CO_IMG26_small</v>
       </c>
-      <c r="G35" s="88" t="str">
+      <c r="G35" s="85" t="str">
         <f>IF(F35&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
-      <c r="H35" s="88" t="str">
+      <c r="H35" s="85" t="str">
         <f t="shared" si="14"/>
         <v>MA_11_01_CO_IMG26_zoom</v>
       </c>
-      <c r="I35" s="88" t="str">
+      <c r="I35" s="85" t="str">
         <f>IF(OR(B34&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J35" s="91" t="s">
-        <v>218</v>
-      </c>
-      <c r="K35" s="86" t="s">
-        <v>212</v>
+      <c r="J35" s="88" t="s">
+        <v>200</v>
+      </c>
+      <c r="K35" s="90" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="12" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14" t="str">
@@ -4889,8 +4758,8 @@
     </row>
     <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14" t="str">
@@ -4909,13 +4778,13 @@
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J37" s="21"/>
+      <c r="J37" s="20"/>
       <c r="K37" s="15"/>
     </row>
     <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14" t="str">
@@ -4934,13 +4803,13 @@
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",IF(VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)=0,"",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE)),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J38" s="22"/>
+      <c r="J38" s="21"/>
       <c r="K38" s="15"/>
     </row>
     <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14" t="str">
@@ -4964,8 +4833,8 @@
     </row>
     <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14" t="str">
@@ -4989,8 +4858,8 @@
     </row>
     <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14" t="str">
@@ -5014,8 +4883,8 @@
     </row>
     <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14" t="str">
@@ -5039,8 +4908,8 @@
     </row>
     <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14" t="str">
@@ -5064,8 +4933,8 @@
     </row>
     <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14" t="str">
@@ -5089,8 +4958,8 @@
     </row>
     <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14" t="str">
@@ -5114,8 +4983,8 @@
     </row>
     <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14" t="str">
@@ -5139,8 +5008,8 @@
     </row>
     <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14" t="str">
@@ -5164,8 +5033,8 @@
     </row>
     <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14" t="str">
@@ -5189,8 +5058,8 @@
     </row>
     <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14" t="str">
@@ -5214,8 +5083,8 @@
     </row>
     <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14" t="str">
@@ -5239,8 +5108,8 @@
     </row>
     <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14" t="str">
@@ -5264,8 +5133,8 @@
     </row>
     <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14" t="str">
@@ -5289,8 +5158,8 @@
     </row>
     <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14" t="str">
@@ -5314,8 +5183,8 @@
     </row>
     <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14" t="str">
@@ -5339,8 +5208,8 @@
     </row>
     <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14" t="str">
@@ -5364,8 +5233,8 @@
     </row>
     <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14" t="str">
@@ -5389,8 +5258,8 @@
     </row>
     <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14" t="str">
@@ -5414,8 +5283,8 @@
     </row>
     <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14" t="str">
@@ -5439,8 +5308,8 @@
     </row>
     <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14" t="str">
@@ -5464,8 +5333,8 @@
     </row>
     <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14" t="str">
@@ -5489,8 +5358,8 @@
     </row>
     <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14" t="str">
@@ -7170,539 +7039,539 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="35" customWidth="1"/>
-    <col min="2" max="2" width="11" style="35"/>
-    <col min="3" max="3" width="13.875" style="35" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="35" customWidth="1"/>
-    <col min="5" max="7" width="11" style="35"/>
-    <col min="8" max="11" width="11" style="35" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="35"/>
+    <col min="1" max="1" width="72.25" style="33" customWidth="1"/>
+    <col min="2" max="2" width="11" style="33"/>
+    <col min="3" max="3" width="13.875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="33" customWidth="1"/>
+    <col min="5" max="7" width="11" style="33"/>
+    <col min="8" max="11" width="11" style="33" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="110"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="114"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="111" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="45"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="117" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="118"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="45"/>
-      <c r="H3" s="35" t="s">
+      <c r="D3" s="122"/>
+      <c r="E3" s="123"/>
+      <c r="F3" s="43"/>
+      <c r="H3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="33" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="39" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="H4" s="35" t="s">
+      <c r="F4" s="43"/>
+      <c r="H4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="35">
+      <c r="J4" s="33">
         <v>1</v>
       </c>
-      <c r="K4" s="35">
+      <c r="K4" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="41" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="120" t="str">
+      <c r="D5" s="124" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>MA_11_01_CO</v>
       </c>
-      <c r="E5" s="121"/>
-      <c r="F5" s="45"/>
-      <c r="H5" s="35" t="s">
+      <c r="E5" s="125"/>
+      <c r="F5" s="43"/>
+      <c r="H5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5" s="33">
         <v>2</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
-      <c r="H6" s="35" t="s">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="H6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6" s="33">
         <v>3</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="75" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="106" t="str">
+      <c r="D7" s="110" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_CO.xls</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="107"/>
-      <c r="H7" s="35" t="s">
+      <c r="E7" s="110"/>
+      <c r="F7" s="111"/>
+      <c r="H7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="33">
         <v>4</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7" s="33">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
-      <c r="I8" s="35" t="s">
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+      <c r="I8" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="33">
         <v>5</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
-      <c r="I9" s="35" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="I9" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="33">
         <v>6</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="33">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="I10" s="35" t="s">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
+      <c r="I10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="33">
         <v>7</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="33">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="33">
         <v>8</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="33">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="33">
         <v>9</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12" s="33">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
-      <c r="I13" s="35" t="s">
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
+      <c r="I13" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="33">
         <v>10</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13" s="33">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="I14" s="35" t="s">
+      <c r="A14" s="44"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="I14" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="33">
         <v>11</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14" s="33">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="111" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
-      <c r="J15" s="35">
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="117"/>
+      <c r="J15" s="33">
         <v>12</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15" s="33">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="39" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="33">
         <v>13</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16" s="33">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="41" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="114" t="str">
+      <c r="D17" s="118" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>MA_11_01_REC10</v>
       </c>
-      <c r="E17" s="115"/>
-      <c r="F17" s="116"/>
-      <c r="J17" s="35">
+      <c r="E17" s="119"/>
+      <c r="F17" s="120"/>
+      <c r="J17" s="33">
         <v>14</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17" s="33">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="75" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="106" t="str">
+      <c r="D18" s="110" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_REC10.xls</v>
       </c>
-      <c r="E18" s="106"/>
-      <c r="F18" s="107"/>
-      <c r="J18" s="35">
+      <c r="E18" s="110"/>
+      <c r="F18" s="111"/>
+      <c r="J18" s="33">
         <v>15</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18" s="33">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="H19" s="35">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="H19" s="33">
         <v>3</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="33">
         <v>16</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19" s="33">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="H20" s="35">
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
+      <c r="H20" s="33">
         <v>1</v>
       </c>
-      <c r="I20" s="35">
+      <c r="I20" s="33">
         <v>9</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="33">
         <v>1</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="33">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H21" s="35" t="str">
+      <c r="H21" s="33" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>MA</v>
       </c>
-      <c r="I21" s="35" t="str">
+      <c r="I21" s="33" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>11</v>
       </c>
-      <c r="J21" s="35" t="str">
+      <c r="J21" s="33" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>01</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21" s="33">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="35">
+      <c r="K22" s="33">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="35">
+      <c r="K23" s="33">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="35">
+      <c r="K24" s="33">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="35">
+      <c r="K25" s="33">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="35">
+      <c r="K26" s="33">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="35">
+      <c r="K27" s="33">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="35">
+      <c r="K28" s="33">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="35">
+      <c r="K29" s="33">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="35">
+      <c r="K30" s="33">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="35">
+      <c r="K31" s="33">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="35">
+      <c r="K32" s="33">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="35">
+      <c r="K33" s="33">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="35">
+      <c r="K34" s="33">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="35">
+      <c r="K35" s="33">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="35">
+      <c r="K36" s="33">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="35">
+      <c r="K37" s="33">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="35">
+      <c r="K38" s="33">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="35">
+      <c r="K39" s="33">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="35">
+      <c r="K40" s="33">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="35">
+      <c r="K41" s="33">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="35">
+      <c r="K42" s="33">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="35">
+      <c r="K43" s="33">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="35">
+      <c r="K44" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="35" t="str">
+      <c r="K45" s="33" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -7897,562 +7766,562 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="35" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="35" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="35" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="35"/>
-    <col min="5" max="5" width="11.75" style="35" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="35" customWidth="1"/>
-    <col min="7" max="7" width="11" style="35" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="35" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="35" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="35" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="35" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="35"/>
+    <col min="1" max="1" width="21" style="33" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="33" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="33"/>
+    <col min="5" max="5" width="11.75" style="33" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="33" customWidth="1"/>
+    <col min="7" max="7" width="11" style="33" customWidth="1"/>
+    <col min="8" max="8" width="24.5" style="33" customWidth="1"/>
+    <col min="9" max="9" width="22.25" style="33" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="33" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="33" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="126" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="122" t="s">
+      <c r="D1" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="126" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="123" t="s">
+      <c r="H1" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="54" t="s">
+      <c r="A2" s="126"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="52" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55" t="s">
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57" t="s">
+      <c r="G4" s="55"/>
+      <c r="H4" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="J4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="J4" s="55"/>
+    </row>
+    <row r="5" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="57" t="s">
+      <c r="G5" s="57"/>
+      <c r="H5" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="59"/>
-    </row>
-    <row r="6" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+      <c r="J5" s="57"/>
+    </row>
+    <row r="6" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="57" t="s">
+      <c r="H6" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I6" s="57" t="s">
+      <c r="I6" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="J6" s="57" t="s">
+      <c r="J6" s="55" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+    <row r="7" spans="1:11" s="54" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57" t="s">
+      <c r="G7" s="55"/>
+      <c r="H7" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I7" s="57" t="s">
+      <c r="I7" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="57"/>
-    </row>
-    <row r="8" spans="1:11" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+      <c r="J7" s="55"/>
+    </row>
+    <row r="8" spans="1:11" s="54" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57" t="s">
+      <c r="G8" s="55"/>
+      <c r="H8" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="J8" s="57"/>
-    </row>
-    <row r="9" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="J8" s="55"/>
+    </row>
+    <row r="9" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57" t="s">
+      <c r="G9" s="55"/>
+      <c r="H9" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I9" s="57" t="s">
+      <c r="I9" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="J9" s="57"/>
-    </row>
-    <row r="10" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+      <c r="J9" s="55"/>
+    </row>
+    <row r="10" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57" t="s">
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="57"/>
-    </row>
-    <row r="11" spans="1:11" s="56" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="J10" s="55"/>
+    </row>
+    <row r="11" spans="1:11" s="54" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57" t="s">
+      <c r="G11" s="55"/>
+      <c r="H11" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="57"/>
-    </row>
-    <row r="12" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" spans="1:11" s="54" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57" t="s">
+      <c r="G12" s="55"/>
+      <c r="H12" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62" t="s">
+      <c r="E13" s="59"/>
+      <c r="F13" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57" t="s">
+      <c r="G13" s="58"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="J13" s="60"/>
-      <c r="K13" s="35" t="s">
+      <c r="J13" s="58"/>
+      <c r="K13" s="33" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="62" t="s">
+      <c r="E14" s="59"/>
+      <c r="F14" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="60"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57" t="s">
+      <c r="G14" s="58"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="J14" s="60"/>
+      <c r="J14" s="58"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="60" t="s">
+      <c r="D15" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="57" t="s">
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="35" t="s">
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="33" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="58" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="61" t="s">
+      <c r="E16" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="62" t="s">
+      <c r="G16" s="59"/>
+      <c r="H16" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="62" t="s">
+      <c r="I16" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="J16" s="61"/>
-      <c r="K16" s="63" t="s">
+      <c r="J16" s="59"/>
+      <c r="K16" s="61" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57" t="s">
+      <c r="B17" s="55"/>
+      <c r="C17" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="64" t="s">
+      <c r="G17" s="55"/>
+      <c r="H17" s="62" t="s">
         <v>109</v>
       </c>
-      <c r="I17" s="64" t="s">
+      <c r="I17" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="65" t="s">
+      <c r="J17" s="55"/>
+      <c r="K17" s="63" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="64" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="68" t="s">
+      <c r="B21" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
     </row>
     <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
     </row>
     <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/fuentes/contenidos/grado11/guion01/SolicitudGrafica-MA_11_01_CO.xlsx
+++ b/fuentes/contenidos/grado11/guion01/SolicitudGrafica-MA_11_01_CO.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="207">
   <si>
     <t>Fecha:</t>
   </si>
@@ -678,12 +678,6 @@
     <t>Dibujar la union de  intervalos  (-∞,-2)∪(2,∞)  en la recta numérica</t>
   </si>
   <si>
-    <t>Falta llenar de color rojo desde 2 hasta onfinito</t>
-  </si>
-  <si>
-    <t>Necesito que frente a las rectas esten los intervalos, ademas emplear  el simbolo de union</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -694,12 +688,6 @@
   </si>
   <si>
     <t>ok</t>
-  </si>
-  <si>
-    <t>Escribir los intervalos frente a  cada recta numérica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escribir los intervalos frente a  cada recta numérica. </t>
   </si>
   <si>
     <t>Es  necesario utilizar la simbologia matematica, el simbolo de pertenece, la equis en minuscula y  cursiva;  la R caracteristica del conjunto de los numeros reales.</t>
@@ -913,7 +901,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -963,6 +951,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,7 +1502,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1743,12 +1737,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1762,6 +1750,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1845,6 +1845,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -3551,8 +3554,8 @@
   <dimension ref="A1:P108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3590,14 +3593,14 @@
       <c r="B2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="F2" s="97" t="s">
+      <c r="D2" s="107"/>
+      <c r="F2" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="98"/>
+      <c r="G2" s="100"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
       <c r="J2" s="16"/>
@@ -3607,12 +3610,12 @@
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="106">
+      <c r="C3" s="108">
         <v>11</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="100"/>
+      <c r="D3" s="109"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="102"/>
       <c r="H3" s="51"/>
       <c r="I3" s="51"/>
       <c r="J3" s="16"/>
@@ -3622,10 +3625,10 @@
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="108" t="s">
         <v>162</v>
       </c>
-      <c r="D4" s="107"/>
+      <c r="D4" s="109"/>
       <c r="E4" s="5"/>
       <c r="F4" s="50" t="s">
         <v>55</v>
@@ -3643,10 +3646,10 @@
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="108" t="s">
+      <c r="C5" s="110" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="109"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="5"/>
       <c r="F5" s="48" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -3697,12 +3700,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="101" t="s">
+      <c r="F8" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="102"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="103"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -3784,7 +3787,7 @@
         <v>166</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3821,8 +3824,8 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="K11" s="96" t="s">
-        <v>204</v>
+      <c r="K11" s="94" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.25">
@@ -3859,8 +3862,8 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J12" s="77"/>
-      <c r="K12" s="93" t="s">
-        <v>210</v>
+      <c r="K12" s="91" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3897,8 +3900,8 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J13"/>
-      <c r="K13" s="93" t="s">
-        <v>210</v>
+      <c r="K13" s="91" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3934,8 +3937,8 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J14" s="77"/>
-      <c r="K14" s="93" t="s">
-        <v>210</v>
+      <c r="K14" s="91" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
@@ -3971,8 +3974,8 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J15"/>
-      <c r="K15" s="93" t="s">
-        <v>210</v>
+      <c r="K15" s="130" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="12" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4009,7 +4012,7 @@
       </c>
       <c r="J16" s="77"/>
       <c r="K16" s="19" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" ht="255" customHeight="1" x14ac:dyDescent="0.25">
@@ -4045,8 +4048,8 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J17" s="30"/>
-      <c r="K17" s="95" t="s">
-        <v>205</v>
+      <c r="K17" s="93" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="147.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4082,8 +4085,8 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J18" s="77"/>
-      <c r="K18" s="94" t="s">
-        <v>209</v>
+      <c r="K18" s="96" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="183" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4119,8 +4122,8 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J19"/>
-      <c r="K19" s="94" t="s">
-        <v>209</v>
+      <c r="K19" s="96" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4156,8 +4159,8 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J20"/>
-      <c r="K20" s="94" t="s">
-        <v>209</v>
+      <c r="K20" s="96" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="12" customFormat="1" ht="102" customHeight="1" x14ac:dyDescent="0.25">
@@ -4193,8 +4196,8 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J21" s="77"/>
-      <c r="K21" s="94" t="s">
-        <v>209</v>
+      <c r="K21" s="96" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="12" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4230,8 +4233,8 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J22"/>
-      <c r="K22" s="94" t="s">
-        <v>209</v>
+      <c r="K22" s="92" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4267,8 +4270,8 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J23" s="77"/>
-      <c r="K23" s="94" t="s">
-        <v>209</v>
+      <c r="K23" s="96" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4304,8 +4307,8 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J24"/>
-      <c r="K24" s="94" t="s">
-        <v>209</v>
+      <c r="K24" s="96" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4341,11 +4344,11 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J25" s="77"/>
-      <c r="K25" s="94" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="K25" s="96" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>177</v>
       </c>
@@ -4380,8 +4383,8 @@
       <c r="J26" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="K26" s="93" t="s">
-        <v>207</v>
+      <c r="K26" s="95" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
@@ -4419,8 +4422,8 @@
       <c r="J27" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="K27" s="93" t="s">
-        <v>207</v>
+      <c r="K27" s="95" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4458,11 +4461,11 @@
       <c r="J28" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="K28" s="93" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="K28" s="95" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>184</v>
       </c>
@@ -4497,8 +4500,8 @@
       <c r="J29" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="K29" s="93" t="s">
-        <v>208</v>
+      <c r="K29" s="95" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="12" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4537,7 +4540,7 @@
         <v>195</v>
       </c>
       <c r="K30" s="83" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="12" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4576,7 +4579,7 @@
         <v>197</v>
       </c>
       <c r="K31" s="83" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="12" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4612,8 +4615,8 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J32"/>
-      <c r="K32" s="92" t="s">
-        <v>204</v>
+      <c r="K32" s="90" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="12" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4652,7 +4655,7 @@
         <v>198</v>
       </c>
       <c r="K33" s="83" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="12" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
@@ -4688,11 +4691,11 @@
         <v>800 x 600 px</v>
       </c>
       <c r="J34" s="77"/>
-      <c r="K34" s="91" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="K34" s="97" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>199</v>
       </c>
@@ -4727,8 +4730,8 @@
       <c r="J35" s="88" t="s">
         <v>200</v>
       </c>
-      <c r="K35" s="90" t="s">
-        <v>201</v>
+      <c r="K35" s="98" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="12" customFormat="1" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7049,25 +7052,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>42</v>
       </c>
       <c r="B2" s="42"/>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -7075,11 +7078,11 @@
         <v>43</v>
       </c>
       <c r="B3" s="42"/>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="125"/>
       <c r="F3" s="43"/>
       <c r="H3" s="33" t="s">
         <v>18</v>
@@ -7130,11 +7133,11 @@
       <c r="C5" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="124" t="str">
+      <c r="D5" s="126" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>MA_11_01_CO</v>
       </c>
-      <c r="E5" s="125"/>
+      <c r="E5" s="127"/>
       <c r="F5" s="43"/>
       <c r="H5" s="33" t="s">
         <v>22</v>
@@ -7179,12 +7182,12 @@
       <c r="C7" s="73" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="110" t="str">
+      <c r="D7" s="112" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_CO.xls</v>
       </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="111"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="113"/>
       <c r="H7" s="33" t="s">
         <v>24</v>
       </c>
@@ -7278,14 +7281,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="114"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="116"/>
       <c r="I13" s="33" t="s">
         <v>33</v>
       </c>
@@ -7318,12 +7321,12 @@
         <v>46</v>
       </c>
       <c r="B15" s="42"/>
-      <c r="C15" s="115" t="s">
+      <c r="C15" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="117"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="119"/>
       <c r="J15" s="33">
         <v>12</v>
       </c>
@@ -7363,12 +7366,12 @@
       <c r="C17" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="118" t="str">
+      <c r="D17" s="120" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>MA_11_01_REC10</v>
       </c>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="122"/>
       <c r="J17" s="33">
         <v>14</v>
       </c>
@@ -7384,12 +7387,12 @@
       <c r="C18" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D18" s="110" t="str">
+      <c r="D18" s="112" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_MA_11_01_REC10.xls</v>
       </c>
-      <c r="E18" s="110"/>
-      <c r="F18" s="111"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="113"/>
       <c r="J18" s="33">
         <v>15</v>
       </c>
@@ -7781,41 +7784,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="128" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="128" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="126" t="s">
+      <c r="D1" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="126" t="s">
+      <c r="E1" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="128" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="127" t="s">
+      <c r="H1" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="126"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
       <c r="H2" s="52" t="s">
         <v>65</v>
       </c>
